--- a/List/Parts List.xlsx
+++ b/List/Parts List.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James Yelland\git\Layers-2017\List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesyelland/Developer/git/Robotics/Layers-2017/List/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="10305" tabRatio="263"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="263"/>
   </bookViews>
   <sheets>
     <sheet name="ORDERS" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="__xlnm._FilterDatabase" localSheetId="0">ORDERS!$A$1:$O$967</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$* #,##0.00\ ;\$* \(#,##0.00\);\$* \-#\ ;@\ "/>
     <numFmt numFmtId="165" formatCode="[$$-C09]#,##0.00;[Red]\-[$$-C09]#,##0.00"/>
@@ -958,29 +958,29 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.7109375" style="1"/>
+    <col min="15" max="15" width="22.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
     </row>
-    <row r="2" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>96</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
@@ -1863,13 +1863,13 @@
       <selection activeCell="B34" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>59</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>59</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>59</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>59</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>62</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>62</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>62</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>63</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>63</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>63</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2138,7 +2138,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
